--- a/SuppXLS/Scen_Refinery.xlsx
+++ b/SuppXLS/Scen_Refinery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_Adv\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD38315-3646-4D60-B83B-D143600FB3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AE7811-0D69-4818-A8B4-BD9BAA06BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1995" windowWidth="17295" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="3648" windowWidth="12408" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
@@ -988,12 +988,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1075,32 +1075,32 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:254" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:254" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="IT4" s="10"/>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>28</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>28</v>
       </c>
